--- a/Stocks/IPCALAB.xlsx
+++ b/Stocks/IPCALAB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>593</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H104">_xll.TA_EMA(G2:G104,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J104">_xll.TA_EMA(D2:D104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K104">_xll.TA_EMA(E2:E104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N104">_xll.TA_RSI(F2:F104,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V104">_xll.TA_EMA(F2:F104,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W104">_xll.TA_EMA(F2:F104,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y104">_xll.TA_EMA(X2:X104,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>479.22101836307513</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I104" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>475.91233316094696</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L104" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>DOWN</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M104" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>DOWN</v>
       </c>
       <c r="N67">
         <v>36.289544250111319</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O104" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P104" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q104" si="25">F67-E67</f>
         <v>1.6499999999999773</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R104" si="26">D67-E67</f>
         <v>7.8000000000000114</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S104" si="27">Q67/R67</f>
         <v>0.21153846153845832</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T104" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U104" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>482.89590304265801</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X104" si="30">V67-W67</f>
         <v>-2.4259428780159737</v>
       </c>
       <c r="Y67">
         <v>-3.2463436852365453</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z104" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA104" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB104" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC104" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD104" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE104" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF104" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG104" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,2689 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>417</v>
+      </c>
+      <c r="D83">
+        <v>424</v>
+      </c>
+      <c r="E83">
+        <v>414.05</v>
+      </c>
+      <c r="F83">
+        <v>414.05</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>417.36666666666662</v>
+      </c>
+      <c r="H83">
+        <v>415.51893978401228</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J83">
+        <v>426.53450483894181</v>
+      </c>
+      <c r="K83">
+        <v>412.9115771831527</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>39.410777230079916</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>9.9499999999999886</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>421.49899600224745</v>
+      </c>
+      <c r="W83">
+        <v>439.67376288696693</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-18.174766884719475</v>
+      </c>
+      <c r="Y83">
+        <v>-17.213867616360353</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>416</v>
+      </c>
+      <c r="D84">
+        <v>420</v>
+      </c>
+      <c r="E84">
+        <v>411.6</v>
+      </c>
+      <c r="F84">
+        <v>414.1</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>415.23333333333335</v>
+      </c>
+      <c r="H84">
+        <v>415.37613655867278</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>425.08239265251029</v>
+      </c>
+      <c r="K84">
+        <v>412.62011558689653</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>39.615926548204236</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>2.5</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>8.3999999999999773</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.29761904761904845</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>420.3606889249786</v>
+      </c>
+      <c r="W84">
+        <v>437.77941008052494</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-17.418721155546336</v>
+      </c>
+      <c r="Y84">
+        <v>-17.25483832419755</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>415</v>
+      </c>
+      <c r="D85">
+        <v>421</v>
+      </c>
+      <c r="E85">
+        <v>414.55</v>
+      </c>
+      <c r="F85">
+        <v>416</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>417.18333333333334</v>
+      </c>
+      <c r="H85">
+        <v>416.27973494600303</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J85">
+        <v>424.17519428528578</v>
+      </c>
+      <c r="K85">
+        <v>413.04897878980842</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>47.982004696938034</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>1.4499999999999886</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>6.4499999999999886</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.22480620155038622</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>419.68981370575113</v>
+      </c>
+      <c r="W85">
+        <v>436.16612044493053</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-16.476306739179392</v>
+      </c>
+      <c r="Y85">
+        <v>-17.099132007193919</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>419.6</v>
+      </c>
+      <c r="D86">
+        <v>419.85</v>
+      </c>
+      <c r="E86">
+        <v>413.3</v>
+      </c>
+      <c r="F86">
+        <v>419</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>417.38333333333338</v>
+      </c>
+      <c r="H86">
+        <v>416.83153413966818</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>423.21403999966674</v>
+      </c>
+      <c r="K86">
+        <v>413.10476128096212</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>59.15189869329668</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>5.6999999999999886</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>6.5500000000000114</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.87022900763358457</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>419.58368852025097</v>
+      </c>
+      <c r="W86">
+        <v>434.89455596752828</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-15.310867447277303</v>
+      </c>
+      <c r="Y86">
+        <v>-16.741479095210597</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>422.95</v>
+      </c>
+      <c r="D87">
+        <v>432</v>
+      </c>
+      <c r="E87">
+        <v>416.3</v>
+      </c>
+      <c r="F87">
+        <v>417.7</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>422</v>
+      </c>
+      <c r="H87">
+        <v>419.41576706983409</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J87">
+        <v>425.16647555529636</v>
+      </c>
+      <c r="K87">
+        <v>413.81481432963722</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N87">
+        <v>52.988640924687026</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>1.3999999999999773</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>15.699999999999989</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>8.9171974522291614E-2</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>419.29389028636621</v>
+      </c>
+      <c r="W87">
+        <v>433.6208851551188</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-14.326994868752593</v>
+      </c>
+      <c r="Y87">
+        <v>-16.258582249918994</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>417.5</v>
+      </c>
+      <c r="D88">
+        <v>425</v>
+      </c>
+      <c r="E88">
+        <v>413.3</v>
+      </c>
+      <c r="F88">
+        <v>418</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>418.76666666666665</v>
+      </c>
+      <c r="H88">
+        <v>419.0912168682504</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>425.12948098745272</v>
+      </c>
+      <c r="K88">
+        <v>413.70041114527339</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>54.360380206846123</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>4.6999999999999886</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>11.699999999999989</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.40170940170940111</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>419.09483024230985</v>
+      </c>
+      <c r="W88">
+        <v>432.46378255103593</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-13.36895230872608</v>
+      </c>
+      <c r="Y88">
+        <v>-15.680656261680411</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>417</v>
+      </c>
+      <c r="D89">
+        <v>422.95</v>
+      </c>
+      <c r="E89">
+        <v>416</v>
+      </c>
+      <c r="F89">
+        <v>420</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>419.65000000000003</v>
+      </c>
+      <c r="H89">
+        <v>419.37060843412519</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>424.64515187912991</v>
+      </c>
+      <c r="K89">
+        <v>414.21143089076821</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>63.287336634888511</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>6.9499999999999886</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.57553956834532471</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>419.23408712810834</v>
+      </c>
+      <c r="W89">
+        <v>431.54053939910733</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-12.306452270998989</v>
+      </c>
+      <c r="Y89">
+        <v>-15.005815463544128</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>420.05</v>
+      </c>
+      <c r="D90">
+        <v>422.35</v>
+      </c>
+      <c r="E90">
+        <v>417.15</v>
+      </c>
+      <c r="F90">
+        <v>419</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>419.5</v>
+      </c>
+      <c r="H90">
+        <v>419.43530421706259</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J90">
+        <v>424.13511812821218</v>
+      </c>
+      <c r="K90">
+        <v>414.86444624837526</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>56.393365959899143</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>1.8500000000000227</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>5.2000000000000455</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.355769230769232</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>419.19807372378398</v>
+      </c>
+      <c r="W90">
+        <v>430.611610554729</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>-11.41353683094502</v>
+      </c>
+      <c r="Y90">
+        <v>-14.287359737024307</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>419.25</v>
+      </c>
+      <c r="D91">
+        <v>422.3</v>
+      </c>
+      <c r="E91">
+        <v>418</v>
+      </c>
+      <c r="F91">
+        <v>420.95</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>420.41666666666669</v>
+      </c>
+      <c r="H91">
+        <v>419.92598544186467</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>423.72731409972062</v>
+      </c>
+      <c r="K91">
+        <v>415.56123597095853</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>65.542516834040327</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>2.9499999999999886</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>4.3000000000000114</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.68604651162790253</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>419.46760084320181</v>
+      </c>
+      <c r="W91">
+        <v>429.89593569882317</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>-10.428334855621358</v>
+      </c>
+      <c r="Y91">
+        <v>-13.515554760743717</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>420.15</v>
+      </c>
+      <c r="D92">
+        <v>424</v>
+      </c>
+      <c r="E92">
+        <v>415.5</v>
+      </c>
+      <c r="F92">
+        <v>420</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>419.83333333333331</v>
+      </c>
+      <c r="H92">
+        <v>419.87965938759896</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J92">
+        <v>423.78791096644937</v>
+      </c>
+      <c r="K92">
+        <v>415.54762797741222</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>58.116943417931999</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>4.5</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>8.5</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>419.54950840578613</v>
+      </c>
+      <c r="W92">
+        <v>429.16290342483626</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>-9.6133950190501309</v>
+      </c>
+      <c r="Y92">
+        <v>-12.735122812404999</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>423.45</v>
+      </c>
+      <c r="D93">
+        <v>477</v>
+      </c>
+      <c r="E93">
+        <v>422</v>
+      </c>
+      <c r="F93">
+        <v>473</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>457.33333333333331</v>
+      </c>
+      <c r="H93">
+        <v>438.60649636046617</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>435.61281964057173</v>
+      </c>
+      <c r="K93">
+        <v>416.98148842687618</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>95.294443196642035</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>51</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>55</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.92727272727272725</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V93">
+        <v>427.77266095874211</v>
+      </c>
+      <c r="W93">
+        <v>432.41009576373727</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>-4.6374348049951664</v>
+      </c>
+      <c r="Y93">
+        <v>-11.115585210923033</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD93">
+        <f t="shared" si="35"/>
+        <v>428.25</v>
+      </c>
+      <c r="AE93">
+        <f t="shared" si="36"/>
+        <v>443</v>
+      </c>
+      <c r="AF93">
+        <f t="shared" si="37"/>
+        <v>449.5</v>
+      </c>
+      <c r="AG93">
+        <f t="shared" si="38"/>
+        <v>456</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>471.2</v>
+      </c>
+      <c r="D94">
+        <v>497.65</v>
+      </c>
+      <c r="E94">
+        <v>457.75</v>
+      </c>
+      <c r="F94">
+        <v>493.75</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>483.05</v>
+      </c>
+      <c r="H94">
+        <v>460.82824818023312</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>449.39885972044465</v>
+      </c>
+      <c r="K94">
+        <v>426.04115766534812</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>96.719504396480886</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>36</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>39.899999999999977</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.90225563909774487</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V94">
+        <v>437.9230208112433</v>
+      </c>
+      <c r="W94">
+        <v>436.95379237383082</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>0.96922843741248244</v>
+      </c>
+      <c r="Y94">
+        <v>-8.6986224812559296</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD94">
+        <f t="shared" si="35"/>
+        <v>462.3</v>
+      </c>
+      <c r="AE94">
+        <f t="shared" si="36"/>
+        <v>473</v>
+      </c>
+      <c r="AF94">
+        <f t="shared" si="37"/>
+        <v>477.70000000000005</v>
+      </c>
+      <c r="AG94">
+        <f t="shared" si="38"/>
+        <v>482.40000000000003</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>496</v>
+      </c>
+      <c r="D95">
+        <v>499.15</v>
+      </c>
+      <c r="E95">
+        <v>471.5</v>
+      </c>
+      <c r="F95">
+        <v>481.3</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>483.98333333333335</v>
+      </c>
+      <c r="H95">
+        <v>472.40579075678323</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J95">
+        <v>460.45466867145694</v>
+      </c>
+      <c r="K95">
+        <v>436.14312262860409</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N95">
+        <v>78.817340283895604</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>9.8000000000000114</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>27.649999999999977</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.35443037974683617</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>444.59640222489816</v>
+      </c>
+      <c r="W95">
+        <v>440.23869664243597</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>4.357705582462188</v>
+      </c>
+      <c r="Y95">
+        <v>-6.0873568685123054</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>482.2</v>
+      </c>
+      <c r="D96">
+        <v>494</v>
+      </c>
+      <c r="E96">
+        <v>469.25</v>
+      </c>
+      <c r="F96">
+        <v>474.2</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>479.15000000000003</v>
+      </c>
+      <c r="H96">
+        <v>475.77789537839163</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>467.90918674446652</v>
+      </c>
+      <c r="K96">
+        <v>443.50020648891427</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>69.630054667353846</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>4.9499999999999886</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>24.75</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.19999999999999954</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>449.15080188260612</v>
+      </c>
+      <c r="W96">
+        <v>442.75434874299629</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>6.3964531396098323</v>
+      </c>
+      <c r="Y96">
+        <v>-3.5905948668878778</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>478</v>
+      </c>
+      <c r="D97">
+        <v>545</v>
+      </c>
+      <c r="E97">
+        <v>478</v>
+      </c>
+      <c r="F97">
+        <v>507</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>510</v>
+      </c>
+      <c r="H97">
+        <v>492.88894768919579</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>485.04047857902953</v>
+      </c>
+      <c r="K97">
+        <v>451.16682726915553</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N97">
+        <v>81.848290157839969</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>29</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>67</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.43283582089552236</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>458.05067851605133</v>
+      </c>
+      <c r="W97">
+        <v>447.5132858731447</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>10.537392642906639</v>
+      </c>
+      <c r="Y97">
+        <v>-0.7649973649289743</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>511</v>
+      </c>
+      <c r="D98">
+        <v>518.9</v>
+      </c>
+      <c r="E98">
+        <v>496</v>
+      </c>
+      <c r="F98">
+        <v>509.8</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>508.23333333333335</v>
+      </c>
+      <c r="H98">
+        <v>500.56114051126457</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>492.5648166725785</v>
+      </c>
+      <c r="K98">
+        <v>461.12975454267655</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>82.59546312926264</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>13.800000000000011</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>22.899999999999977</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.60262008733624561</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>466.01211259050496</v>
+      </c>
+      <c r="W98">
+        <v>452.12711654920804</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>13.884996041296915</v>
+      </c>
+      <c r="Y98">
+        <v>2.1650013163162036</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>506.5</v>
+      </c>
+      <c r="D99">
+        <v>528.85</v>
+      </c>
+      <c r="E99">
+        <v>484</v>
+      </c>
+      <c r="F99">
+        <v>489.75</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>500.86666666666662</v>
+      </c>
+      <c r="H99">
+        <v>500.71390358896559</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>500.62819074533883</v>
+      </c>
+      <c r="K99">
+        <v>466.21203131097064</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>60.357267693769401</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>5.75</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>44.850000000000023</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.12820512820512814</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>469.66409526888879</v>
+      </c>
+      <c r="W99">
+        <v>454.91399680482226</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>14.750098464066525</v>
+      </c>
+      <c r="Y99">
+        <v>4.6820207458662679</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>492.05</v>
+      </c>
+      <c r="D100">
+        <v>499</v>
+      </c>
+      <c r="E100">
+        <v>485.8</v>
+      </c>
+      <c r="F100">
+        <v>493</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>492.59999999999997</v>
+      </c>
+      <c r="H100">
+        <v>496.65695179448278</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>500.266370579708</v>
+      </c>
+      <c r="K100">
+        <v>470.56491324186607</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>62.408039430352034</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>7.1999999999999886</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>13.199999999999989</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.54545454545454508</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>473.25423445829051</v>
+      </c>
+      <c r="W100">
+        <v>457.7351822266873</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>15.519052231603212</v>
+      </c>
+      <c r="Y100">
+        <v>6.849427043013657</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>493.15</v>
+      </c>
+      <c r="D101">
+        <v>586</v>
+      </c>
+      <c r="E101">
+        <v>493.15</v>
+      </c>
+      <c r="F101">
+        <v>574</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>551.05000000000007</v>
+      </c>
+      <c r="H101">
+        <v>523.85347589724142</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J101">
+        <v>519.3182882286618</v>
+      </c>
+      <c r="K101">
+        <v>475.58382141034025</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N101">
+        <v>85.605940828909979</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>80.850000000000023</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>92.850000000000023</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.87075928917609047</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V101">
+        <v>488.7535830031689</v>
+      </c>
+      <c r="W101">
+        <v>466.3473909506364</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>22.406192052532504</v>
+      </c>
+      <c r="Y101">
+        <v>9.960780044917426</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD101">
+        <f t="shared" si="35"/>
+        <v>503.75</v>
+      </c>
+      <c r="AE101">
+        <f t="shared" si="36"/>
+        <v>528.6</v>
+      </c>
+      <c r="AF101">
+        <f t="shared" si="37"/>
+        <v>539.6</v>
+      </c>
+      <c r="AG101">
+        <f t="shared" si="38"/>
+        <v>550.55000000000007</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>578.85</v>
+      </c>
+      <c r="D102">
+        <v>596.79999999999995</v>
+      </c>
+      <c r="E102">
+        <v>505.6</v>
+      </c>
+      <c r="F102">
+        <v>518.35</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>540.25</v>
+      </c>
+      <c r="H102">
+        <v>532.05173794862071</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>536.5364464000703</v>
+      </c>
+      <c r="K102">
+        <v>482.25408331915355</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N102">
+        <v>55.953022746113291</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>12.75</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>91.199999999999932</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.13980263157894748</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>493.30687792575833</v>
+      </c>
+      <c r="W102">
+        <v>470.19943606540409</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>23.107441860354243</v>
+      </c>
+      <c r="Y102">
+        <v>12.590112408004789</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>524.29999999999995</v>
+      </c>
+      <c r="D103">
+        <v>530</v>
+      </c>
+      <c r="E103">
+        <v>490.05</v>
+      </c>
+      <c r="F103">
+        <v>496.8</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>505.61666666666662</v>
+      </c>
+      <c r="H103">
+        <v>518.83420230764364</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>535.08390275561021</v>
+      </c>
+      <c r="K103">
+        <v>483.98650924823056</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N103">
+        <v>47.91851929360493</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>6.75</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>39.949999999999989</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.16896120150187741</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>493.84428132179551</v>
+      </c>
+      <c r="W103">
+        <v>472.16984820870749</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>21.674433113088014</v>
+      </c>
+      <c r="Y103">
+        <v>14.406976549021433</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>499.2</v>
+      </c>
+      <c r="D104">
+        <v>532</v>
+      </c>
+      <c r="E104">
+        <v>491.05</v>
+      </c>
+      <c r="F104">
+        <v>510.5</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>511.18333333333334</v>
+      </c>
+      <c r="H104">
+        <v>515.00876782048852</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>534.39859103214133</v>
+      </c>
+      <c r="K104">
+        <v>485.55617385973488</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N104">
+        <v>53.252783808715229</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>19.449999999999989</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>40.949999999999989</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.47496947496947484</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>496.4066995799808</v>
+      </c>
+      <c r="W104">
+        <v>475.00911871176618</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>21.397580868214618</v>
+      </c>
+      <c r="Y104">
+        <v>15.80509741286007</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
